--- a/perf-results.xlsx
+++ b/perf-results.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
-  <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="300" windowWidth="21040" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="12580" yWindow="1100" windowWidth="26940" windowHeight="19180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>Type</t>
   </si>
@@ -62,15 +62,6 @@
     <t>React v16 Alpha</t>
   </si>
   <si>
-    <t>Angular Total</t>
-  </si>
-  <si>
-    <t>React v15 Total</t>
-  </si>
-  <si>
-    <t>React v16 Alpha Total</t>
-  </si>
-  <si>
     <t>Average % of Test Time Spent Scripting</t>
   </si>
   <si>
@@ -84,12 +75,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -153,7 +143,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -215,8 +205,60 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -236,9 +278,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="113">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -269,6 +310,32 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -298,6 +365,32 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -702,7 +795,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="Components">
-  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
@@ -728,10 +821,10 @@
     <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="2">
+    <field x="2"/>
     <field x="1"/>
-    <field x="2"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="8">
     <i>
       <x/>
     </i>
@@ -739,33 +832,21 @@
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="3"/>
     </i>
-    <i t="default">
-      <x/>
+    <i r="1">
+      <x v="4"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i r="1">
       <x/>
     </i>
     <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x v="3"/>
     </i>
-    <i>
-      <x v="4"/>
-    </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="default">
       <x v="4"/>
     </i>
   </rowItems>
@@ -786,7 +867,7 @@
   <dataFields count="3">
     <dataField name="Average % of Test Time Spent Scripting" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
     <dataField name="Average of Scripting (ms)" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="166"/>
-    <dataField name="StdDev of % of Test Time Spent Scripting" fld="6" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="167"/>
+    <dataField name="StdDev of % of Test Time Spent Scripting" fld="6" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -1143,8 +1224,8 @@
   </sheetPr>
   <dimension ref="A3:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1965,15 +2046,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D16"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
@@ -1989,26 +2070,26 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
+      <c r="A5" s="4">
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
-        <v>100</v>
+      <c r="A6" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>6.315598407107692E-2</v>
@@ -2016,63 +2097,63 @@
       <c r="C6" s="12">
         <v>1905</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="2">
         <v>2.5923016391018994E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1208088822353682</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3668.6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.638135013960841E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.11632995369346488</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3547.4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.2238456618126427E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
         <v>500</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.44472613550260254</v>
-      </c>
-      <c r="C7" s="12">
-        <v>13593.6</v>
-      </c>
-      <c r="D7" s="13">
-        <v>4.7408667548236505E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.25394105978683973</v>
-      </c>
-      <c r="C8" s="12">
-        <v>7749.3</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.20113738658500011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5">
-        <v>100</v>
+      <c r="A10" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="2">
-        <v>0.1208088822353682</v>
+        <v>0.44472613550260254</v>
       </c>
       <c r="C10" s="12">
-        <v>3668.6</v>
-      </c>
-      <c r="D10" s="13">
-        <v>4.638135013960841E-3</v>
+        <v>13593.6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4.7408667548236505E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5">
-        <v>500</v>
+      <c r="A11" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>0.53883636674440782</v>
@@ -2080,72 +2161,22 @@
       <c r="C11" s="12">
         <v>16494</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="2">
         <v>2.1451077023181522E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
+      <c r="A12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>0.32982262448988803</v>
+        <v>0.5873728882286896</v>
       </c>
       <c r="C12" s="12">
-        <v>10081.299999999999</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.22080511480585396</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="5">
-        <v>100</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.11632995369346488</v>
-      </c>
-      <c r="C14" s="12">
-        <v>3547.4</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1.2238456618126427E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="5">
-        <v>500</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.5873728882286896</v>
-      </c>
-      <c r="C15" s="12">
         <v>17803.400000000001</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D12" s="2">
         <v>1.291931460480877E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.35185142096107719</v>
-      </c>
-      <c r="C16" s="12">
-        <v>10675.4</v>
-      </c>
-      <c r="D16" s="13">
-        <v>0.24854473540545247</v>
       </c>
     </row>
   </sheetData>
